--- a/analysis/participant_extractedmetrics/participant270.xlsx
+++ b/analysis/participant_extractedmetrics/participant270.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="72">
   <si>
     <t/>
   </si>
@@ -162,6 +162,9 @@
     <t>var7</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>arg5</t>
   </si>
   <si>
@@ -232,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -243,6 +246,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,12 +267,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1195,7 +1212,519 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>177.0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="4">
+        <v>133.0</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3503.83</v>
+      </c>
+      <c r="C27" s="4">
+        <v>200.17</v>
+      </c>
+      <c r="D27" s="4">
+        <v>417.27</v>
+      </c>
+      <c r="E27" s="4">
+        <v>41725.81</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3220.22</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="4">
+        <v>41804.07</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.28</v>
+      </c>
+      <c r="E28" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="4">
+        <v>28.06</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="4">
+        <v>350.38</v>
+      </c>
+      <c r="C29" s="4">
+        <v>200.17</v>
+      </c>
+      <c r="D29" s="4">
+        <v>417.27</v>
+      </c>
+      <c r="E29" s="4">
+        <v>235.74</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="4">
+        <v>402.53</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="4">
+        <v>314.32</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="4">
+        <v>417.27</v>
+      </c>
+      <c r="C30" s="4">
+        <v>200.17</v>
+      </c>
+      <c r="D30" s="4">
+        <v>417.27</v>
+      </c>
+      <c r="E30" s="4">
+        <v>333.44</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="4">
+        <v>417.27</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="4">
+        <v>199.94</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3115,7 +3644,912 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V25" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="X25" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>215.0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V26" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="X26" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>85.0</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4">
+        <v>450.36</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="G27" s="4">
+        <v>600.99</v>
+      </c>
+      <c r="H27" s="4">
+        <v>8967.06</v>
+      </c>
+      <c r="I27" s="4">
+        <v>4011.86</v>
+      </c>
+      <c r="J27" s="4">
+        <v>3511.41</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1301.29</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1659.49</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1117.92</v>
+      </c>
+      <c r="O27" s="4">
+        <v>850.91</v>
+      </c>
+      <c r="P27" s="4">
+        <v>53951.84</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>334.03</v>
+      </c>
+      <c r="R27" s="4">
+        <v>266.97</v>
+      </c>
+      <c r="S27" s="4">
+        <v>450.36</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V27" s="4">
+        <v>7448.77</v>
+      </c>
+      <c r="W27" s="4">
+        <v>4162.0</v>
+      </c>
+      <c r="X27" s="4">
+        <v>3761.72</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>334.03</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>38915.63</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.28</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="H28" s="4">
+        <v>5.49</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2.46</v>
+      </c>
+      <c r="J28" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="P28" s="4">
+        <v>33.03</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0.28</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V28" s="4">
+        <v>4.56</v>
+      </c>
+      <c r="W28" s="4">
+        <v>2.55</v>
+      </c>
+      <c r="X28" s="4">
+        <v>2.3</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>23.83</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="4">
+        <v>450.36</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="G29" s="4">
+        <v>300.5</v>
+      </c>
+      <c r="H29" s="4">
+        <v>358.68</v>
+      </c>
+      <c r="I29" s="4">
+        <v>222.88</v>
+      </c>
+      <c r="J29" s="4">
+        <v>234.09</v>
+      </c>
+      <c r="K29" s="4">
+        <v>260.26</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="4">
+        <v>237.07</v>
+      </c>
+      <c r="N29" s="4">
+        <v>279.48</v>
+      </c>
+      <c r="O29" s="4">
+        <v>425.45</v>
+      </c>
+      <c r="P29" s="4">
+        <v>250.94</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>334.03</v>
+      </c>
+      <c r="R29" s="4">
+        <v>266.97</v>
+      </c>
+      <c r="S29" s="4">
+        <v>450.36</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V29" s="4">
+        <v>372.44</v>
+      </c>
+      <c r="W29" s="4">
+        <v>219.05</v>
+      </c>
+      <c r="X29" s="4">
+        <v>235.11</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>334.03</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>457.83</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="AH29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="4">
+        <v>450.36</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="G30" s="4">
+        <v>266.97</v>
+      </c>
+      <c r="H30" s="4">
+        <v>3286.77</v>
+      </c>
+      <c r="I30" s="4">
+        <v>216.86</v>
+      </c>
+      <c r="J30" s="4">
+        <v>216.86</v>
+      </c>
+      <c r="K30" s="4">
+        <v>183.54</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="4">
+        <v>216.86</v>
+      </c>
+      <c r="N30" s="4">
+        <v>183.54</v>
+      </c>
+      <c r="O30" s="4">
+        <v>250.31</v>
+      </c>
+      <c r="P30" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>334.03</v>
+      </c>
+      <c r="R30" s="4">
+        <v>266.97</v>
+      </c>
+      <c r="S30" s="4">
+        <v>450.36</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V30" s="4">
+        <v>3286.77</v>
+      </c>
+      <c r="W30" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="X30" s="4">
+        <v>216.86</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>334.03</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>183.55</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="AH30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM30" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3144,10 +4578,10 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>26</v>
@@ -3156,19 +4590,19 @@
         <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>4</v>
@@ -3183,40 +4617,40 @@
         <v>37</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>9</v>
@@ -3237,16 +4671,16 @@
         <v>47</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>0</v>
@@ -4123,10 +5557,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>26</v>
@@ -4135,19 +5569,19 @@
         <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>4</v>
@@ -4162,40 +5596,40 @@
         <v>37</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>9</v>
@@ -4216,16 +5650,16 @@
         <v>47</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AN13" s="1" t="s">
         <v>0</v>
@@ -5083,7 +6517,926 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM26" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>199.0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>74.0</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1317.94</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="4">
+        <v>166.16</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1317.94</v>
+      </c>
+      <c r="I28" s="4">
+        <v>4170.39</v>
+      </c>
+      <c r="J28" s="4">
+        <v>166.16</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1317.94</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1101.08</v>
+      </c>
+      <c r="N28" s="4">
+        <v>48986.06</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="4">
+        <v>216.87</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1667.6</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>1101.08</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>30540.8</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>300.26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3.01</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="N29" s="4">
+        <v>35.34</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>22.03</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM29" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="4">
+        <v>439.31</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="4">
+        <v>166.16</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="4">
+        <v>439.31</v>
+      </c>
+      <c r="I30" s="4">
+        <v>595.77</v>
+      </c>
+      <c r="J30" s="4">
+        <v>166.16</v>
+      </c>
+      <c r="K30" s="4">
+        <v>439.31</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="4">
+        <v>550.54</v>
+      </c>
+      <c r="N30" s="4">
+        <v>246.16</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R30" s="4">
+        <v>216.87</v>
+      </c>
+      <c r="S30" s="4">
+        <v>333.52</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>550.54</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>412.71</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>300.26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="4">
+        <v>216.87</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="4">
+        <v>166.16</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="4">
+        <v>216.87</v>
+      </c>
+      <c r="I31" s="4">
+        <v>216.87</v>
+      </c>
+      <c r="J31" s="4">
+        <v>166.16</v>
+      </c>
+      <c r="K31" s="4">
+        <v>216.87</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="4">
+        <v>300.26</v>
+      </c>
+      <c r="N31" s="4">
+        <v>133.5</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R31" s="4">
+        <v>216.87</v>
+      </c>
+      <c r="S31" s="4">
+        <v>216.87</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>300.26</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>216.92</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>300.26</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>